--- a/assets/intro/Chetty-graph.xlsx
+++ b/assets/intro/Chetty-graph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anjasautmann/Dropbox (Personal)/13_JPAL/IDEA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jim\Documents\GitHub\book\assets\intro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A28C15-FC72-F540-8A8A-1C23B2D404E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F135A695-1941-4EA7-A149-90E401CF52D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="960" windowWidth="24020" windowHeight="14000" xr2:uid="{F7506CF1-42A2-0E40-ACF3-CE4CBEA862E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7506CF1-42A2-0E40-ACF3-CE4CBEA862E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,6 +110,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF33A02C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -128,10 +133,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -168,32 +173,15 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="88500"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="88500"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="88500"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -261,32 +249,15 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="55000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="55000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="55000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -354,32 +325,14 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -445,34 +398,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd" cmpd="sng">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="98500"/>
-                </a:schemeClr>
+                <a:srgbClr val="33A02C"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="98500"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="98500"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -531,7 +467,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="980153071"/>
         <c:axId val="1113538431"/>
@@ -565,14 +500,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -616,22 +551,20 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                    <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                  </a:rPr>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
                   <a:t>Percent of studies</a:t>
                 </a:r>
               </a:p>
@@ -650,14 +583,14 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                  <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -682,14 +615,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -715,10 +648,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20340580272293554"/>
-          <c:y val="0.92726276133586749"/>
-          <c:w val="0.59318839455412897"/>
-          <c:h val="5.9806204181373869E-2"/>
+          <c:x val="0.24510124058402108"/>
+          <c:y val="0.90719446321672159"/>
+          <c:w val="0.52182251500775678"/>
+          <c:h val="7.3851720394906867E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -734,14 +667,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -795,28 +728,41 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
-  <a:schemeClr val="dk1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
   <cs:variation>
-    <a:tint val="88500"/>
+    <a:lumMod val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="55000"/>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="75000"/>
+    <a:lumMod val="80000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="98500"/>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="30000"/>
+    <a:lumMod val="50000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="60000"/>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="80000"/>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -1341,16 +1287,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>640274</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>111512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>608671</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>22697</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1381,7 +1327,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="colorbrewer gnbu 4">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1389,34 +1335,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="17406D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="DBEFF9"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A6CEE3"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="1F78B4"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="B2DF8A"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="33A02C"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="7CCA62"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="A5C249"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="F49100"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="85DFD0"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -1677,13 +1623,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC2AB39-02F0-1040-BABD-08B2E2892E08}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1701,7 +1647,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1727,7 +1673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1979</v>
       </c>
@@ -1753,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1990</v>
       </c>
@@ -1779,7 +1725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2000</v>
       </c>
@@ -1805,7 +1751,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2010</v>
       </c>

--- a/assets/intro/Chetty-graph.xlsx
+++ b/assets/intro/Chetty-graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jim\Documents\GitHub\book\assets\intro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F135A695-1941-4EA7-A149-90E401CF52D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5256608-AA86-4800-AA4C-731008E5B152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F7506CF1-42A2-0E40-ACF3-CE4CBEA862E1}"/>
   </bookViews>
@@ -70,13 +70,11 @@
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Helvetica"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF24292E"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,7 +101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,12 +500,9 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -553,10 +548,7 @@
                 <a:pPr>
                   <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -564,12 +556,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1600" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                  </a:rPr>
                   <a:t>Percent of studies</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.5366966840704253E-2"/>
+              <c:y val="0.30844042655157539"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -585,10 +590,7 @@
               <a:pPr>
                 <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -617,12 +619,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -669,12 +668,9 @@
           <a:pPr>
             <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -722,7 +718,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1623,13 +1619,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC2AB39-02F0-1040-BABD-08B2E2892E08}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="11" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1647,138 +1646,139 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1979</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>50</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1979</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>29</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>1979</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>13</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>1979</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1990</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>38</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>1990</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>33</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1990</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>17</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>1990</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>2000</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>65</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>2000</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>56</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>2000</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>48</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>2000</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>2010</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>75</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>2010</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>60</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>2010</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>69</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>2010</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>